--- a/Class/iges_entiall_info.xlsx
+++ b/Class/iges_entiall_info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8094C647-ABC7-4221-ABCD-5616FB77A486}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECD43C1-9E85-4B1E-9F60-C77CC796448D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>空实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>流形实体B-Rep对象实体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平面内曲面实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -706,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1060,7 @@
         <v>190</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1068,7 @@
         <v>192</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1076,7 @@
         <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1088,7 +1084,7 @@
         <v>196</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1092,7 @@
         <v>198</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,7 +1100,7 @@
         <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,7 +1108,7 @@
         <v>204</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1120,7 +1116,7 @@
         <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1128,7 +1124,7 @@
         <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1132,7 @@
         <v>210</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1144,7 +1140,7 @@
         <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1152,7 +1148,7 @@
         <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,7 +1156,7 @@
         <v>214</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1168,7 +1164,7 @@
         <v>216</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,7 +1172,7 @@
         <v>218</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1184,7 +1180,7 @@
         <v>220</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,7 +1188,7 @@
         <v>222</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1200,7 +1196,7 @@
         <v>228</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1208,7 +1204,7 @@
         <v>230</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1216,7 +1212,7 @@
         <v>232</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,7 +1220,7 @@
         <v>302</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,7 +1228,7 @@
         <v>304</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1240,7 +1236,7 @@
         <v>306</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1248,7 +1244,7 @@
         <v>308</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1256,7 +1252,7 @@
         <v>310</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1264,7 +1260,7 @@
         <v>312</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1272,7 +1268,7 @@
         <v>314</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1280,7 +1276,7 @@
         <v>316</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1288,7 +1284,7 @@
         <v>320</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,7 +1292,7 @@
         <v>322</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,7 +1300,7 @@
         <v>402</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1312,7 +1308,7 @@
         <v>404</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1316,7 @@
         <v>406</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1324,7 @@
         <v>408</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +1332,7 @@
         <v>410</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,7 +1340,7 @@
         <v>412</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1348,7 @@
         <v>414</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +1356,7 @@
         <v>416</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1368,7 +1364,7 @@
         <v>418</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,7 +1372,7 @@
         <v>420</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1384,7 +1380,7 @@
         <v>422</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1392,7 +1388,7 @@
         <v>430</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1400,7 +1396,7 @@
         <v>502</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1408,7 +1404,7 @@
         <v>504</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,7 +1412,7 @@
         <v>508</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,7 +1420,7 @@
         <v>510</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,7 +1428,7 @@
         <v>514</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
